--- a/biology/Zoologie/Anomalobuthus_zarudnyi/Anomalobuthus_zarudnyi.xlsx
+++ b/biology/Zoologie/Anomalobuthus_zarudnyi/Anomalobuthus_zarudnyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anomalobuthus zarudnyi est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Ouzbékistan dans la province d'Andijan et au Tadjikistan dans la province de Sughd[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Ouzbékistan dans la province d'Andijan et au Tadjikistan dans la province de Sughd.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce psammophile se rencontre dans le sable de la vallée de Ferghana[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce psammophile se rencontre dans le sable de la vallée de Ferghana.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le corps du mâle syntype mesure 28,7 mm et la queue 18 mm et le corps de la femelle syntype 30,3 mm et la queue 18,5 mm[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le corps du mâle syntype mesure 28,7 mm et la queue 18 mm et le corps de la femelle syntype 30,3 mm et la queue 18,5 mm.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Psammobuthus zarudnyi par Birula en 1911. Elle est placée dans le genre Anomalobuthus par Teruel, Kovařík et Fet en 2018[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Psammobuthus zarudnyi par Birula en 1911. Elle est placée dans le genre Anomalobuthus par Teruel, Kovařík et Fet en 2018.
 </t>
         </is>
       </c>
@@ -635,9 +655,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Nikolai Alekseyvich Zarudny[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Nikolai Alekseyvich Zarudny.
 </t>
         </is>
       </c>
@@ -666,7 +688,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Birula, 1911 : « Skorpiologische Beiträge. 7–8. Psammobuthus g. n. » Zoologischer Anzeiger, vol. 37, no 34, p. 69–74 (texte intégral).</t>
         </is>
